--- a/CheckList/checklist.xlsx
+++ b/CheckList/checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayden\OneDrive\책집필\집필 중\파이썬을 이용한 퀀트투자\원고\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayden\Documents\GitHub\financial-statements\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{510A1DE7-E653-4F83-B269-EE5C0E0E3491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B012ABE3-2B8D-495B-B788-DFA5B4766180}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84524334-E5DE-41C4-8617-97DB0EFD7712}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="135">
   <si>
     <t>재무상태표</t>
   </si>
@@ -420,23 +420,27 @@
     <t>014390</t>
   </si>
   <si>
-    <t>티커</t>
+    <t>Contributor (github ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정</t>
+    <t>에러 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
+    <t>종목코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에러</t>
+    <t>재무제표 항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재무제표</t>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 요망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -507,13 +511,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +551,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,242 +873,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27EB292-3771-4589-8377-3EAE80F370EF}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>3</v>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,11 +1122,11 @@
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>3</v>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,11 +1136,11 @@
       <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>3</v>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,11 +1150,11 @@
       <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>2</v>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,11 +1164,11 @@
       <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,11 +1178,11 @@
       <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>3</v>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,11 +1192,11 @@
       <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>3</v>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,11 +1206,11 @@
       <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>3</v>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,11 +1220,11 @@
       <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
+      <c r="C24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,11 +1234,11 @@
       <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,11 +1248,11 @@
       <c r="B26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>3</v>
+      <c r="C26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,11 +1262,11 @@
       <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>3</v>
+      <c r="C27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,11 +1276,11 @@
       <c r="B28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>3</v>
+      <c r="C28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,11 +1290,11 @@
       <c r="B29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>3</v>
+      <c r="C29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,11 +1304,11 @@
       <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>3</v>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,11 +1318,11 @@
       <c r="B31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>2</v>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,11 +1332,11 @@
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>2</v>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,11 +1346,11 @@
       <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>2</v>
+      <c r="C33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,11 +1360,11 @@
       <c r="B34" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>2</v>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,11 +1374,11 @@
       <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>3</v>
+      <c r="C35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,11 +1388,11 @@
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
+      <c r="C36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,11 +1402,11 @@
       <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>3</v>
+      <c r="C37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,11 +1416,11 @@
       <c r="B38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>3</v>
+      <c r="C38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,11 +1430,11 @@
       <c r="B39" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>2</v>
+      <c r="C39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,11 +1444,11 @@
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>3</v>
+      <c r="C40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,11 +1458,11 @@
       <c r="B41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>2</v>
+      <c r="C41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,11 +1472,11 @@
       <c r="B42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
+      <c r="C42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,11 +1486,11 @@
       <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>3</v>
+      <c r="C43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,11 +1500,11 @@
       <c r="B44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>3</v>
+      <c r="C44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,11 +1514,11 @@
       <c r="B45" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>3</v>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,11 +1528,11 @@
       <c r="B46" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>2</v>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,11 +1542,11 @@
       <c r="B47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>3</v>
+      <c r="C47" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,11 +1556,11 @@
       <c r="B48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>3</v>
+      <c r="C48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,11 +1570,11 @@
       <c r="B49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>3</v>
+      <c r="C49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,11 +1584,11 @@
       <c r="B50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>3</v>
+      <c r="C50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,11 +1598,11 @@
       <c r="B51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>3</v>
+      <c r="C51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,11 +1612,11 @@
       <c r="B52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>3</v>
+      <c r="C52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,11 +1626,11 @@
       <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>3</v>
+      <c r="C53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,11 +1640,11 @@
       <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>2</v>
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,11 +1654,11 @@
       <c r="B55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>2</v>
+      <c r="C55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,11 +1668,11 @@
       <c r="B56" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>2</v>
+      <c r="C56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,11 +1682,11 @@
       <c r="B57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>3</v>
+      <c r="C57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,11 +1696,11 @@
       <c r="B58" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>2</v>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,11 +1710,11 @@
       <c r="B59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>2</v>
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,11 +1724,11 @@
       <c r="B60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>2</v>
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,11 +1738,11 @@
       <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>3</v>
+      <c r="C61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,11 +1752,11 @@
       <c r="B62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>3</v>
+      <c r="C62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,11 +1766,11 @@
       <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>3</v>
+      <c r="C63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,11 +1780,11 @@
       <c r="B64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>3</v>
+      <c r="C64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,11 +1794,11 @@
       <c r="B65" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>3</v>
+      <c r="C65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,11 +1808,11 @@
       <c r="B66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>3</v>
+      <c r="C66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,11 +1822,11 @@
       <c r="B67" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>2</v>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,11 +1836,11 @@
       <c r="B68" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>2</v>
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,11 +1850,11 @@
       <c r="B69" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>2</v>
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,11 +1864,11 @@
       <c r="B70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>2</v>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,11 +1878,11 @@
       <c r="B71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>3</v>
+      <c r="C71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,11 +1892,11 @@
       <c r="B72" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>3</v>
+      <c r="C72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,11 +1906,11 @@
       <c r="B73" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>3</v>
+      <c r="C73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,11 +1920,11 @@
       <c r="B74" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>3</v>
+      <c r="C74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,11 +1934,11 @@
       <c r="B75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>3</v>
+      <c r="C75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,11 +1948,11 @@
       <c r="B76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>2</v>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,11 +1962,11 @@
       <c r="B77" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>2</v>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,11 +1976,11 @@
       <c r="B78" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>2</v>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,11 +1990,11 @@
       <c r="B79" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>3</v>
+      <c r="C79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,11 +2004,11 @@
       <c r="B80" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>3</v>
+      <c r="C80" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,11 +2018,11 @@
       <c r="B81" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>3</v>
+      <c r="C81" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,11 +2032,11 @@
       <c r="B82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>2</v>
+      <c r="C82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,11 +2046,11 @@
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>3</v>
+      <c r="C83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,11 +2060,11 @@
       <c r="B84" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>3</v>
+      <c r="C84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,11 +2074,11 @@
       <c r="B85" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>3</v>
+      <c r="C85" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,11 +2088,11 @@
       <c r="B86" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>3</v>
+      <c r="C86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,11 +2102,11 @@
       <c r="B87" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>3</v>
+      <c r="C87" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2091,11 +2116,11 @@
       <c r="B88" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>3</v>
+      <c r="C88" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,11 +2130,11 @@
       <c r="B89" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>3</v>
+      <c r="C89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,11 +2144,11 @@
       <c r="B90" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>3</v>
+      <c r="C90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,11 +2158,11 @@
       <c r="B91" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>3</v>
+      <c r="C91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,11 +2172,11 @@
       <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>3</v>
+      <c r="C92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,11 +2186,11 @@
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>3</v>
+      <c r="C93" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,11 +2200,11 @@
       <c r="B94" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>3</v>
+      <c r="C94" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2189,11 +2214,11 @@
       <c r="B95" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>2</v>
+      <c r="C95" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2228,11 @@
       <c r="B96" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>3</v>
+      <c r="C96" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,11 +2242,11 @@
       <c r="B97" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>3</v>
+      <c r="C97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2231,11 +2256,11 @@
       <c r="B98" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>3</v>
+      <c r="C98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2245,11 +2270,11 @@
       <c r="B99" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>3</v>
+      <c r="C99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2259,11 +2284,11 @@
       <c r="B100" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>2</v>
+      <c r="C100" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2273,11 +2298,11 @@
       <c r="B101" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>2</v>
+      <c r="C101" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,11 +2312,11 @@
       <c r="B102" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>3</v>
+      <c r="C102" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,11 +2326,11 @@
       <c r="B103" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>3</v>
+      <c r="C103" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2315,11 +2340,11 @@
       <c r="B104" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>2</v>
+      <c r="C104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2329,11 +2354,11 @@
       <c r="B105" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>2</v>
+      <c r="C105" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,11 +2368,11 @@
       <c r="B106" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>2</v>
+      <c r="C106" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2357,11 +2382,11 @@
       <c r="B107" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>3</v>
+      <c r="C107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,11 +2396,11 @@
       <c r="B108" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>3</v>
+      <c r="C108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,11 +2410,11 @@
       <c r="B109" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>3</v>
+      <c r="C109" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,11 +2424,11 @@
       <c r="B110" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>3</v>
+      <c r="C110" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2413,11 +2438,11 @@
       <c r="B111" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>3</v>
+      <c r="C111" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,11 +2452,11 @@
       <c r="B112" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>3</v>
+      <c r="C112" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,11 +2466,11 @@
       <c r="B113" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>3</v>
+      <c r="C113" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,11 +2480,11 @@
       <c r="B114" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>3</v>
+      <c r="C114" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,11 +2494,11 @@
       <c r="B115" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>3</v>
+      <c r="C115" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,11 +2508,11 @@
       <c r="B116" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>3</v>
+      <c r="C116" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2497,11 +2522,11 @@
       <c r="B117" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>3</v>
+      <c r="C117" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2511,11 +2536,11 @@
       <c r="B118" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>3</v>
+      <c r="C118" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2525,11 +2550,11 @@
       <c r="B119" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>3</v>
+      <c r="C119" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2539,11 +2564,11 @@
       <c r="B120" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>3</v>
+      <c r="C120" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2553,11 +2578,11 @@
       <c r="B121" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>2</v>
+      <c r="C121" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2567,11 +2592,11 @@
       <c r="B122" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>3</v>
+      <c r="C122" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2581,11 +2606,11 @@
       <c r="B123" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>2</v>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2595,11 +2620,11 @@
       <c r="B124" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>3</v>
+      <c r="C124" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2609,11 +2634,11 @@
       <c r="B125" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D125" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/CheckList/checklist.xlsx
+++ b/CheckList/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brayden\Documents\GitHub\financial-statements\checklist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wousi\OneDrive\문서\GitHub\financial-statements\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84524334-E5DE-41C4-8617-97DB0EFD7712}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024B227-AC67-4F77-916A-31D0B54AB92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
+    <workbookView xWindow="1056" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="143">
   <si>
     <t>재무상태표</t>
   </si>
@@ -441,6 +441,38 @@
   </si>
   <si>
     <t>확인 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 구성이 다르게 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자료있음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">네이버영업이익/순이익값자체다름, 영업비용=수수료/금융비용/판관비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판관비항목없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.흥국생명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성화재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유진증권 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부국증권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -574,6 +609,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371009</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0A56D9-E414-4BC2-AFFD-5C9C5B1DA622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8442960" y="441960"/>
+          <a:ext cx="3723809" cy="5790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>458042</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{908259CD-FBD8-4097-9A83-A80512C45B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12466320" y="441960"/>
+          <a:ext cx="8504762" cy="7104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>561067</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6728012F-17CD-4F34-974F-656ED1F80C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21183600" y="441960"/>
+          <a:ext cx="7266667" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>619947</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B28CB7A-C713-4DF5-8904-38BE910E6A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28559760" y="441960"/>
+          <a:ext cx="8666667" cy="5847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>48518</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4F74B4-D388-4B1D-97AB-D011A18F890A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37277040" y="441960"/>
+          <a:ext cx="8095238" cy="4523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>29470</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6491C5DA-C4E8-4EDB-AC19-748D1C22C4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45994320" y="441960"/>
+          <a:ext cx="8076190" cy="3428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,22 +1177,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27EB292-3771-4589-8377-3EAE80F370EF}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:BL125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D125"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -905,7 +1209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -918,8 +1222,38 @@
       <c r="D2" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK2">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX2">
+        <v>7</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK2">
+        <v>8</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -932,8 +1266,11 @@
       <c r="D3" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -946,8 +1283,11 @@
       <c r="D4" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -960,8 +1300,11 @@
       <c r="D5" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -974,8 +1317,11 @@
       <c r="D6" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1334,11 @@
       <c r="D7" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1351,11 @@
       <c r="D8" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1369,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +1453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1467,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1495,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1523,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1537,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1565,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1593,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -1283,7 +1635,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -1297,7 +1649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -1311,7 +1663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1353,7 +1705,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>37</v>
       </c>
@@ -1367,7 +1719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1395,7 +1747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -1409,7 +1761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1789,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
@@ -1451,7 +1803,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1465,7 +1817,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
@@ -1493,7 +1845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -1507,7 +1859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -1521,7 +1873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
@@ -1535,7 +1887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -1549,7 +1901,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -1577,7 +1929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
@@ -1591,7 +1943,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -1605,7 +1957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
@@ -1619,7 +1971,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -1633,7 +1985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -1647,7 +1999,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +2013,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +2027,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
@@ -1689,7 +2041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
@@ -1703,7 +2055,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -1717,7 +2069,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
@@ -1731,7 +2083,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
@@ -1745,7 +2097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
@@ -1759,7 +2111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
@@ -1773,7 +2125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
@@ -1787,7 +2139,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
@@ -1801,7 +2153,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
@@ -1815,7 +2167,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
@@ -1829,7 +2181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>71</v>
       </c>
@@ -1843,7 +2195,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>72</v>
       </c>
@@ -1857,7 +2209,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>73</v>
       </c>
@@ -1871,7 +2223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>74</v>
       </c>
@@ -1885,7 +2237,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>75</v>
       </c>
@@ -1899,7 +2251,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>76</v>
       </c>
@@ -1913,7 +2265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>77</v>
       </c>
@@ -1927,7 +2279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
         <v>78</v>
       </c>
@@ -1941,7 +2293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="5" t="s">
         <v>79</v>
       </c>
@@ -1955,7 +2307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
         <v>80</v>
       </c>
@@ -1969,7 +2321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="5" t="s">
         <v>81</v>
       </c>
@@ -1983,7 +2335,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="5" t="s">
         <v>82</v>
       </c>
@@ -1997,7 +2349,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="5" t="s">
         <v>83</v>
       </c>
@@ -2011,7 +2363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
         <v>84</v>
       </c>
@@ -2025,7 +2377,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>85</v>
       </c>
@@ -2039,7 +2391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>86</v>
       </c>
@@ -2053,7 +2405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>87</v>
       </c>
@@ -2067,7 +2419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>88</v>
       </c>
@@ -2081,7 +2433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>89</v>
       </c>
@@ -2095,7 +2447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>90</v>
       </c>
@@ -2109,7 +2461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>91</v>
       </c>
@@ -2123,7 +2475,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>92</v>
       </c>
@@ -2137,7 +2489,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>93</v>
       </c>
@@ -2151,7 +2503,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>94</v>
       </c>
@@ -2165,7 +2517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>95</v>
       </c>
@@ -2179,7 +2531,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>96</v>
       </c>
@@ -2193,7 +2545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>97</v>
       </c>
@@ -2207,7 +2559,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>98</v>
       </c>
@@ -2221,7 +2573,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>99</v>
       </c>
@@ -2235,7 +2587,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>100</v>
       </c>
@@ -2249,7 +2601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>101</v>
       </c>
@@ -2263,7 +2615,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>102</v>
       </c>
@@ -2277,7 +2629,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -2291,7 +2643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
         <v>104</v>
       </c>
@@ -2305,7 +2657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>105</v>
       </c>
@@ -2319,7 +2671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>106</v>
       </c>
@@ -2333,7 +2685,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>107</v>
       </c>
@@ -2347,7 +2699,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>108</v>
       </c>
@@ -2361,7 +2713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>109</v>
       </c>
@@ -2375,7 +2727,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>110</v>
       </c>
@@ -2389,7 +2741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
         <v>111</v>
       </c>
@@ -2403,7 +2755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>112</v>
       </c>
@@ -2417,7 +2769,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>113</v>
       </c>
@@ -2431,7 +2783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
         <v>114</v>
       </c>
@@ -2445,7 +2797,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>115</v>
       </c>
@@ -2459,7 +2811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>116</v>
       </c>
@@ -2473,7 +2825,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>117</v>
       </c>
@@ -2487,7 +2839,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>118</v>
       </c>
@@ -2501,7 +2853,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>119</v>
       </c>
@@ -2515,7 +2867,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>120</v>
       </c>
@@ -2529,7 +2881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>121</v>
       </c>
@@ -2543,7 +2895,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>122</v>
       </c>
@@ -2557,7 +2909,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>123</v>
       </c>
@@ -2571,7 +2923,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>124</v>
       </c>
@@ -2585,7 +2937,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>125</v>
       </c>
@@ -2599,7 +2951,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
         <v>126</v>
       </c>
@@ -2613,7 +2965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>127</v>
       </c>
@@ -2627,7 +2979,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>128</v>
       </c>
@@ -2645,5 +2997,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CheckList/checklist.xlsx
+++ b/CheckList/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wousi\OneDrive\문서\GitHub\financial-statements\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024B227-AC67-4F77-916A-31D0B54AB92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B711C5-AA43-48CA-91C8-05755C6B22CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
+    <workbookView xWindow="2232" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="145">
   <si>
     <t>재무상태표</t>
   </si>
@@ -473,6 +472,14 @@
   </si>
   <si>
     <t>부국증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상인증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판관비값있으나 raw데이타에없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,6 +884,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>115185</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E0BA10-90F5-40E1-80F6-AC47E17B9CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54711600" y="441960"/>
+          <a:ext cx="8161905" cy="8047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1177,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27EB292-3771-4589-8377-3EAE80F370EF}">
-  <dimension ref="A1:BL125"/>
+  <dimension ref="A1:BY125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CK10" sqref="CK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1192,7 +1243,7 @@
     <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -1209,7 +1260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1252,8 +1303,14 @@
       <c r="BL2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.4">
+      <c r="BX2">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1327,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:77" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1395,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1412,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1368,8 +1425,11 @@
       <c r="D9" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +1443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1471,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1485,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +3056,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CheckList/checklist.xlsx
+++ b/CheckList/checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wousi\OneDrive\문서\GitHub\financial-statements\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B711C5-AA43-48CA-91C8-05755C6B22CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6024B227-AC67-4F77-916A-31D0B54AB92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
+    <workbookView xWindow="1056" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38E45DD5-6008-40C8-ABF5-363B69EF7224}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="143">
   <si>
     <t>재무상태표</t>
   </si>
@@ -472,14 +473,6 @@
   </si>
   <si>
     <t>부국증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상상인증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판관비값있으나 raw데이타에없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,50 +877,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>115185</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>92339</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E0BA10-90F5-40E1-80F6-AC47E17B9CC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="54711600" y="441960"/>
-          <a:ext cx="8161905" cy="8047619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1228,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27EB292-3771-4589-8377-3EAE80F370EF}">
-  <dimension ref="A1:BY125"/>
+  <dimension ref="A1:BL125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CK10" sqref="CK10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1243,7 +1192,7 @@
     <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -1260,7 +1209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1303,14 +1252,8 @@
       <c r="BL2" t="s">
         <v>142</v>
       </c>
-      <c r="BX2">
-        <v>9</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1327,7 +1270,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1304,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1338,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1412,7 +1355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1425,11 +1368,8 @@
       <c r="D9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1443,7 +1383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1471,7 +1411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1513,7 +1453,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -3056,7 +2996,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>